--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>3、 负责游戏中的数据日志和统计、各种发行平台的上架接入流程、版本更新、维护等运营环节的开发工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他人评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,21 +806,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>3、 负责游戏中的数据日志和统计、各种发行平台的上架接入流程、版本更新、维护等运营环节的开发工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他人评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,32 +802,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
-      </c>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>3、 负责游戏中的数据日志和统计、各种发行平台的上架接入流程、版本更新、维护等运营环节的开发工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时什么契机进入的游戏行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,60 +767,65 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>11</v>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-    </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>当时什么契机进入的游戏行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对加班的看法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,13 +827,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>25</v>
+      <c r="A45" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -140,14 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遇到开发疑难和瓶颈是如何处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾经遇到的开发难题，如何解决的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>匹配度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、 负责游戏中的数据日志和统计、各种发行平台的上架接入流程、版本更新、维护等运营环节的开发工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当时什么契机进入的游戏行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +225,14 @@
   </si>
   <si>
     <t>对加班的看法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责游戏中的数据日志和统计、各种发行平台的上架接入流程、版本更新、维护等运营环节的开发工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经遇到开发疑难和瓶颈是如何处理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,12 +659,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -693,7 +689,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -706,144 +702,139 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
+      <c r="A21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
+      <c r="A24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>14</v>
+      <c r="A26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
+      <c r="A31" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
+      <c r="A32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
+      <c r="A36" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
+      <c r="A43" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -870,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="str">
         <f>问题!A9</f>
@@ -881,11 +872,11 @@
         <v>解决问题</v>
       </c>
       <c r="D1" t="str">
-        <f>问题!A21</f>
+        <f>问题!A20</f>
         <v>匹配度</v>
       </c>
       <c r="E1" t="str">
-        <f>问题!A31</f>
+        <f>问题!A30</f>
         <v>游戏与开发热情</v>
       </c>
     </row>

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="问题" sheetId="1" r:id="rId1"/>
-    <sheet name="评估" sheetId="2" r:id="rId2"/>
+    <sheet name="客户端程序" sheetId="1" r:id="rId1"/>
+    <sheet name="准主美" sheetId="3" r:id="rId2"/>
+    <sheet name="评估" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -234,13 +235,583 @@
   <si>
     <t>曾经遇到开发疑难和瓶颈是如何处理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原画美术（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、原画、准主美方向）</t>
+    </r>
+  </si>
+  <si>
+    <t>岗位职责：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独立撑起美术设计与制作各环节的工作，保障游戏的美术品质</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据产品需求，能独立的构想和确立各类的美术风格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与开发、策划一起确定并执行美术标准和规范，优化平衡视觉表现与体验效果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计和制作游戏角色和场景</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据游戏风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计和制作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对接外包管理，指导与把控外包质量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计和制作产品宣传图</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在小团队中，需与项目成员紧密合作，积极参与游戏的体验、测试、反馈等其他必要的有益于产品的工作；</t>
+    </r>
+  </si>
+  <si>
+    <t>岗位要求：</t>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年以上原画专业经验，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至少参与过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款完整的游戏项目开发，了解游戏美术制作全流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擅长原画概念设计，并熟悉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、特效、平面设计、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型、动作等相关技能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有丰富的创作实践经验和扎实的美术功底，优秀的美术欣赏水平及对游戏美术的鉴赏能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，能够适应不同的美术风格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱玩游戏，对各种美术风格、类型、年代的游戏涉猎广泛，并持续尝试和吸收</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对游戏玩法和体验设计有想法和创造欲、有产品意识，有兴趣、潜力、能力兼修游戏策划者加分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有较强的学习能力、想象力和创造力，有好奇心、探索精神；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身有艺术追求，又能在项目中与策划、开发良好沟通协作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自驱力强，对自己的工作态度、成果、能力发展有主动的要求；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热爱做游戏本身，心态好，不浮躁，耐得住</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>简历需附带作品，尽量能涵盖多样风格、游戏类型、设计制作环节（如角色、场景、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等）；并提供已上线的游戏项目名字及在其中承担的美术工作内容</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +866,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,12 +949,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -628,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,6 +1489,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="122.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -864,19 +1634,19 @@
         <v>20</v>
       </c>
       <c r="B1" t="str">
-        <f>问题!A9</f>
+        <f>客户端程序!A9</f>
         <v>技术栈储备与发展方向</v>
       </c>
       <c r="C1" t="str">
-        <f>问题!A15</f>
+        <f>客户端程序!A15</f>
         <v>解决问题</v>
       </c>
       <c r="D1" t="str">
-        <f>问题!A20</f>
+        <f>客户端程序!A20</f>
         <v>匹配度</v>
       </c>
       <c r="E1" t="str">
-        <f>问题!A30</f>
+        <f>客户端程序!A30</f>
         <v>游戏与开发热情</v>
       </c>
     </row>

--- a/项目/面试.xlsx
+++ b/项目/面试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>独立撑起开发相关工作，包括从开发环境搭建、工具到具体产品功能的完整开发及优化</t>
   </si>
@@ -805,6 +805,10 @@
       </rPr>
       <t>等）；并提供已上线的游戏项目名字及在其中承担的美术工作内容</t>
     </r>
+  </si>
+  <si>
+    <t>评估概念图用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1272,7 +1276,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A9" sqref="A9:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1490,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,117 +1505,281 @@
     <col min="1" max="1" width="122.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
